--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Runs</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>sdlist</t>
+  </si>
+  <si>
+    <t>sec/run</t>
   </si>
 </sst>
 </file>
@@ -359,15 +362,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,13 +381,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -389,27 +398,64 @@
         <v>820</v>
       </c>
       <c r="C2">
+        <f>B2/A2</f>
+        <v>82</v>
+      </c>
+      <c r="D2">
         <v>5065</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5065</v>
       </c>
-      <c r="D3">
-        <v>595836831489578</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1123.7</v>
+      </c>
+      <c r="C4">
+        <f>B4/A4</f>
+        <v>74.913333333333341</v>
+      </c>
+      <c r="D4">
+        <v>1870500046</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>B5/A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1448491702</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +373,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,30 +390,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>SUM(A4:A18)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>820</v>
       </c>
-      <c r="C2">
-        <f>B2/A2</f>
+      <c r="C3">
+        <f>B3/A3</f>
         <v>82</v>
-      </c>
-      <c r="D2">
-        <v>5065</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="D3">
         <v>5065</v>
@@ -421,41 +413,252 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5065</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>1123.7</v>
-      </c>
-      <c r="C4">
-        <f>B4/A4</f>
-        <v>74.913333333333341</v>
-      </c>
-      <c r="D4">
-        <v>1870500046</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
       </c>
       <c r="C5">
         <f>B5/A5</f>
-        <v>0</v>
+        <v>74.913333333333341</v>
       </c>
       <c r="D5">
+        <v>1870500046</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1684.3</v>
+      </c>
+      <c r="C6">
+        <f>B6/A6</f>
+        <v>84.215000000000003</v>
+      </c>
+      <c r="D6">
         <v>1448491702</v>
       </c>
-      <c r="E5">
-        <v>31</v>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1647</v>
+      </c>
+      <c r="C7">
+        <f>B7/A7</f>
+        <v>82.35</v>
+      </c>
+      <c r="D7">
+        <v>2014432089</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1524</v>
+      </c>
+      <c r="C8">
+        <f>B8/A8</f>
+        <v>76.2</v>
+      </c>
+      <c r="D8">
+        <v>1326226434</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1442</v>
+      </c>
+      <c r="D9">
+        <v>1980861559</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1502</v>
+      </c>
+      <c r="C10">
+        <f>B10/A10</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D10">
+        <v>970625024</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1521</v>
+      </c>
+      <c r="C11">
+        <f>B11/A11</f>
+        <v>76.05</v>
+      </c>
+      <c r="D11">
+        <v>1423402764</v>
+      </c>
+      <c r="E11">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1383</v>
+      </c>
+      <c r="C12">
+        <f>B12/A12</f>
+        <v>69.150000000000006</v>
+      </c>
+      <c r="D12">
+        <v>2146749999</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3726</v>
+      </c>
+      <c r="C13">
+        <f>B13/A13</f>
+        <v>186.3</v>
+      </c>
+      <c r="D13">
+        <v>380931903</v>
+      </c>
+      <c r="E13">
+        <v>170</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1561</v>
+      </c>
+      <c r="C14">
+        <f>B14/A14</f>
+        <v>78.05</v>
+      </c>
+      <c r="D14">
+        <v>2028064142</v>
+      </c>
+      <c r="E14">
+        <v>190</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1437</v>
+      </c>
+      <c r="C15">
+        <f>B15/A15</f>
+        <v>79.833333333333329</v>
+      </c>
+      <c r="D15">
+        <v>574008048</v>
+      </c>
+      <c r="E15">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
